--- a/supplementary-material/inputs/swim_checklist.xlsx
+++ b/supplementary-material/inputs/swim_checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dtay0016/dev/youth-homelessness-review/supplementary-material/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A660DE4-C038-8E49-8CAA-2C4CCE09624A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3624F8D-DE6F-F846-A22B-3EB173628256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-68800" yWindow="-5700" windowWidth="68800" windowHeight="28800" xr2:uid="{B7C78C8B-F6D7-F24A-B5C6-990F481593F6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>SWiM reporting item</t>
   </si>
@@ -107,7 +107,37 @@
     <t>9. Limitations of the synthesis</t>
   </si>
   <si>
-    <t>TBC</t>
+    <t>See sectopn 'Synthesis of results'</t>
+  </si>
+  <si>
+    <t>See section 'Measures of treatment effect'</t>
+  </si>
+  <si>
+    <t>See section: 'Data analysis and synthesis'</t>
+  </si>
+  <si>
+    <t>See section 'Deviations from the protocol'</t>
+  </si>
+  <si>
+    <t>Not applicable</t>
+  </si>
+  <si>
+    <t>Results are presented in Tables 3-9</t>
+  </si>
+  <si>
+    <t>Not applicable, heterogeneity was no assessed</t>
+  </si>
+  <si>
+    <t>Not applicable, certainty of findings was not assessed</t>
+  </si>
+  <si>
+    <t>Study characteristics are presented in Table 2</t>
+  </si>
+  <si>
+    <t>See section 'Impact of included interventions'</t>
+  </si>
+  <si>
+    <t>See section 'Discussion and Applications to Practice'</t>
   </si>
 </sst>
 </file>
@@ -491,7 +521,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -531,7 +561,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -542,7 +572,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -553,7 +583,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -564,7 +594,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -575,7 +605,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -586,7 +616,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -597,7 +627,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -608,7 +638,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -619,7 +649,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -630,7 +660,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
